--- a/Cosas que llegan de mercado/Nota 6.xlsx
+++ b/Cosas que llegan de mercado/Nota 6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis\Documents\Refaccionaria\Planned request\Mercado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis\Documents\GitHub\Motozom\Cosas que llegan de mercado\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Casco Abatible Para Moto Echoarmor Negro Mate Certificado Dot Seguridad Y Estilo En Trayectos Diarios Y Paseos Urbanos L 59-60 Cm</t>
   </si>
@@ -84,6 +84,18 @@
   </si>
   <si>
     <t xml:space="preserve">Llego </t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Importa</t>
+  </si>
+  <si>
+    <t>Precio publico</t>
   </si>
 </sst>
 </file>
@@ -827,26 +839,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:K111"/>
+  <dimension ref="E1:L111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I112" sqref="I112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="120" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
       <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>0</v>
       </c>
@@ -860,15 +885,18 @@
         <f>F2*G2</f>
         <v>1096</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2">
+        <v>1420</v>
+      </c>
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <f>SUM(H2:H111,H111)</f>
         <v>5403</v>
       </c>
     </row>
-    <row r="14" spans="5:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
         <v>1</v>
       </c>
@@ -882,8 +910,11 @@
         <f>F14*G14</f>
         <v>873</v>
       </c>
-    </row>
-    <row r="25" spans="5:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" ht="30" x14ac:dyDescent="0.25">
       <c r="E25" s="1" t="s">
         <v>2</v>
       </c>
@@ -897,8 +928,11 @@
         <f>F25*G25</f>
         <v>875</v>
       </c>
-    </row>
-    <row r="37" spans="5:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9" ht="30" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
         <v>3</v>
       </c>
@@ -912,8 +946,11 @@
         <f>F37*G37</f>
         <v>190</v>
       </c>
-    </row>
-    <row r="46" spans="5:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46" spans="5:9" ht="30" x14ac:dyDescent="0.25">
       <c r="E46" s="1" t="s">
         <v>4</v>
       </c>
@@ -927,8 +964,11 @@
         <f>F46*G46</f>
         <v>194</v>
       </c>
-    </row>
-    <row r="57" spans="5:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="5:9" ht="30" x14ac:dyDescent="0.25">
       <c r="E57" s="1" t="s">
         <v>5</v>
       </c>
@@ -942,8 +982,11 @@
         <f>F57*G57</f>
         <v>268</v>
       </c>
-    </row>
-    <row r="67" spans="5:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="5:9" ht="30" x14ac:dyDescent="0.25">
       <c r="E67" s="1" t="s">
         <v>6</v>
       </c>
@@ -957,8 +1000,11 @@
         <f>F67*G67</f>
         <v>206</v>
       </c>
-    </row>
-    <row r="78" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="78" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
         <v>7</v>
       </c>
@@ -972,8 +1018,11 @@
         <f>F78*G78</f>
         <v>309</v>
       </c>
-    </row>
-    <row r="88" spans="5:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="5:9" ht="30" x14ac:dyDescent="0.25">
       <c r="E88" s="1" t="s">
         <v>8</v>
       </c>
@@ -987,18 +1036,21 @@
         <f>F88*G88</f>
         <v>744</v>
       </c>
-    </row>
-    <row r="89" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="89" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="5:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:9" ht="30" x14ac:dyDescent="0.25">
       <c r="E99" s="1" t="s">
         <v>11</v>
       </c>
@@ -1012,13 +1064,16 @@
         <f>F99*G99</f>
         <v>234</v>
       </c>
-    </row>
-    <row r="100" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="5:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:9" ht="30" x14ac:dyDescent="0.25">
       <c r="E111" s="1" t="s">
         <v>12</v>
       </c>
@@ -1031,6 +1086,9 @@
       <c r="H111">
         <f>F111*G111</f>
         <v>207</v>
+      </c>
+      <c r="I111">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Cosas que llegan de mercado/Nota 6.xlsx
+++ b/Cosas que llegan de mercado/Nota 6.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis\Documents\GitHub\Motozom\Cosas que llegan de mercado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\Cosas que llegan de mercado\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF68ADE-D807-40A1-9CC2-C2C8D878362F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17730"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Casco Abatible Para Moto Echoarmor Negro Mate Certificado Dot Seguridad Y Estilo En Trayectos Diarios Y Paseos Urbanos L 59-60 Cm</t>
   </si>
@@ -96,12 +97,15 @@
   </si>
   <si>
     <t>Precio publico</t>
+  </si>
+  <si>
+    <t>SI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,7 +174,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -208,7 +218,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -246,7 +262,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -284,7 +306,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -322,7 +350,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -360,7 +394,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -398,7 +438,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Imagen 10"/>
+        <xdr:cNvPr id="11" name="Imagen 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -436,7 +482,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagen 7"/>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -474,7 +526,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagen 8"/>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -512,7 +570,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Imagen 9"/>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -550,7 +614,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagen 11"/>
+        <xdr:cNvPr id="12" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -838,11 +908,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I112" sqref="I112"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,7 +984,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="25" spans="5:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:10" ht="30" x14ac:dyDescent="0.25">
       <c r="E25" s="1" t="s">
         <v>2</v>
       </c>
@@ -931,6 +1001,9 @@
       <c r="I25">
         <v>1150</v>
       </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="37" spans="5:9" ht="30" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
@@ -986,7 +1059,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="5:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:10" ht="30" x14ac:dyDescent="0.25">
       <c r="E67" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1076,11 @@
       <c r="I67">
         <v>185</v>
       </c>
-    </row>
-    <row r="78" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
         <v>7</v>
       </c>
@@ -1021,8 +1097,11 @@
       <c r="I78">
         <v>185</v>
       </c>
-    </row>
-    <row r="88" spans="5:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="5:10" ht="30" x14ac:dyDescent="0.25">
       <c r="E88" s="1" t="s">
         <v>8</v>
       </c>
@@ -1039,13 +1118,16 @@
       <c r="I88">
         <v>350</v>
       </c>
-    </row>
-    <row r="89" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J88" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
         <v>10</v>
       </c>

--- a/Cosas que llegan de mercado/Nota 6.xlsx
+++ b/Cosas que llegan de mercado/Nota 6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\Cosas que llegan de mercado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF68ADE-D807-40A1-9CC2-C2C8D878362F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF916B5-CBCD-4B43-B3F8-5825C531B99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Casco Abatible Para Moto Echoarmor Negro Mate Certificado Dot Seguridad Y Estilo En Trayectos Diarios Y Paseos Urbanos L 59-60 Cm</t>
   </si>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,6 +958,9 @@
       <c r="I2">
         <v>1420</v>
       </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
       <c r="K2" t="s">
         <v>14</v>
       </c>
@@ -1005,7 +1008,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="5:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:10" ht="30" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
         <v>3</v>
       </c>
@@ -1023,7 +1026,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="46" spans="5:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:10" ht="30" x14ac:dyDescent="0.25">
       <c r="E46" s="1" t="s">
         <v>4</v>
       </c>
@@ -1040,8 +1043,11 @@
       <c r="I46">
         <v>185</v>
       </c>
-    </row>
-    <row r="57" spans="5:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="5:10" ht="30" x14ac:dyDescent="0.25">
       <c r="E57" s="1" t="s">
         <v>5</v>
       </c>
@@ -1058,6 +1064,9 @@
       <c r="I57">
         <v>185</v>
       </c>
+      <c r="J57" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="67" spans="5:10" ht="30" x14ac:dyDescent="0.25">
       <c r="E67" s="1" t="s">
@@ -1132,7 +1141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="5:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:10" ht="30" x14ac:dyDescent="0.25">
       <c r="E99" s="1" t="s">
         <v>11</v>
       </c>
@@ -1149,13 +1158,16 @@
       <c r="I99">
         <v>180</v>
       </c>
-    </row>
-    <row r="100" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J99" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="5:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:10" ht="30" x14ac:dyDescent="0.25">
       <c r="E111" s="1" t="s">
         <v>12</v>
       </c>
@@ -1171,6 +1183,9 @@
       </c>
       <c r="I111">
         <v>100</v>
+      </c>
+      <c r="J111" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Cosas que llegan de mercado/Nota 6.xlsx
+++ b/Cosas que llegan de mercado/Nota 6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\Cosas que llegan de mercado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF916B5-CBCD-4B43-B3F8-5825C531B99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFAC63B-1772-4343-9379-497F0E1643E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Casco Abatible Para Moto Echoarmor Negro Mate Certificado Dot Seguridad Y Estilo En Trayectos Diarios Y Paseos Urbanos L 59-60 Cm</t>
   </si>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,6 +986,9 @@
       <c r="I14">
         <v>1150</v>
       </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="25" spans="5:10" ht="30" x14ac:dyDescent="0.25">
       <c r="E25" s="1" t="s">

--- a/Cosas que llegan de mercado/Nota 6.xlsx
+++ b/Cosas que llegan de mercado/Nota 6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Motozom\Cosas que llegan de mercado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFAC63B-1772-4343-9379-497F0E1643E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD70955-5873-4F48-B0F5-5219FFBF8740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Casco Abatible Para Moto Echoarmor Negro Mate Certificado Dot Seguridad Y Estilo En Trayectos Diarios Y Paseos Urbanos L 59-60 Cm</t>
   </si>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,6 +1028,9 @@
       <c r="I37">
         <v>245</v>
       </c>
+      <c r="J37" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="46" spans="5:10" ht="30" x14ac:dyDescent="0.25">
       <c r="E46" s="1" t="s">
